--- a/excel work.xlsx
+++ b/excel work.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/66f41a679b228204/Documents/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{CA31E88D-2096-44DB-B17B-234AA868B266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{008E58D6-7EB3-48E1-84FB-C0612A232AA5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF29347-FCD9-4AEC-873B-C54C393A5E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-1740" yWindow="3450" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{A20F002A-7D7F-422C-BD45-1713AF73CD9C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{A20F002A-7D7F-422C-BD45-1713AF73CD9C}"/>
   </bookViews>
   <sheets>
     <sheet name="maths" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -109,8 +109,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,15 +512,15 @@
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>16384</v>
       </c>
     </row>
@@ -526,7 +528,7 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>1048576</v>
       </c>
     </row>
